--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_35.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7403D1-886B-4892-8259-8DE64D77A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586C53A-1B9D-4F7F-A932-992F3EA4AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="879">
   <si>
     <t>Name</t>
   </si>
@@ -2453,6 +2453,210 @@
   </si>
   <si>
     <t>7411522156</t>
+  </si>
+  <si>
+    <t>Umashankar</t>
+  </si>
+  <si>
+    <t>umash6833@gmail.com</t>
+  </si>
+  <si>
+    <t>8549965038</t>
+  </si>
+  <si>
+    <t>Joshwa Dcosta</t>
+  </si>
+  <si>
+    <t>joshwa.eee.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>8296605101</t>
+  </si>
+  <si>
+    <t>Keerthan</t>
+  </si>
+  <si>
+    <t>keerthankulal854@gmail.com</t>
+  </si>
+  <si>
+    <t>7204650285</t>
+  </si>
+  <si>
+    <t>Srinivasa Institute of Technology, Mangalore</t>
+  </si>
+  <si>
+    <t>Marine Engineering</t>
+  </si>
+  <si>
+    <t>Sahana K M</t>
+  </si>
+  <si>
+    <t>sahanaa.km@gmail.com</t>
+  </si>
+  <si>
+    <t>7975140944</t>
+  </si>
+  <si>
+    <t>Nandan g</t>
+  </si>
+  <si>
+    <t>gnandan238@gmail.com</t>
+  </si>
+  <si>
+    <t>8123155440</t>
+  </si>
+  <si>
+    <t>St.Joseph Engineering College, Mangalore</t>
+  </si>
+  <si>
+    <t>Aditya Chengte</t>
+  </si>
+  <si>
+    <t>adityachengate@gmail.com</t>
+  </si>
+  <si>
+    <t>9741010091</t>
+  </si>
+  <si>
+    <t>VTU PG Centre, Kalaburagi</t>
+  </si>
+  <si>
+    <t>Aaroh Bhardwaj</t>
+  </si>
+  <si>
+    <t>aarohr.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>7970932080</t>
+  </si>
+  <si>
+    <t>Lohit M Hiremath</t>
+  </si>
+  <si>
+    <t>lohit.ece.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>8310078844</t>
+  </si>
+  <si>
+    <t>Prekshith M D</t>
+  </si>
+  <si>
+    <t>mdprekshi18@gmail.com</t>
+  </si>
+  <si>
+    <t>8431139685</t>
+  </si>
+  <si>
+    <t>Vishnu chavan</t>
+  </si>
+  <si>
+    <t>Info.vishnu15@gmail.com</t>
+  </si>
+  <si>
+    <t>9148957405</t>
+  </si>
+  <si>
+    <t>Sinchana k v</t>
+  </si>
+  <si>
+    <t>1mj22ec134@mvjce.edu.in</t>
+  </si>
+  <si>
+    <t>8088376026</t>
+  </si>
+  <si>
+    <t>Dhanush R</t>
+  </si>
+  <si>
+    <t>dhanush123mys@gmail.com</t>
+  </si>
+  <si>
+    <t>9972977464</t>
+  </si>
+  <si>
+    <t>MYSORE COLLEGE OF ENGINEERING AND MANAGEMENT, MYSURU</t>
+  </si>
+  <si>
+    <t>Nithin MK</t>
+  </si>
+  <si>
+    <t>yuvanithin46@gmail.com</t>
+  </si>
+  <si>
+    <t>7019419890</t>
+  </si>
+  <si>
+    <t>Jayanth A</t>
+  </si>
+  <si>
+    <t>jayantha6604@gmail.com</t>
+  </si>
+  <si>
+    <t>6362226181</t>
+  </si>
+  <si>
+    <t>Sharanu</t>
+  </si>
+  <si>
+    <t>sharanuvarnal999@gmail.com</t>
+  </si>
+  <si>
+    <t>8618382253</t>
+  </si>
+  <si>
+    <t>Sujay Dundur</t>
+  </si>
+  <si>
+    <t>sujaydundur004@gmail.com</t>
+  </si>
+  <si>
+    <t>8123357356</t>
+  </si>
+  <si>
+    <t>SHARANA BASAVA</t>
+  </si>
+  <si>
+    <t>sharanabasava.ece.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>8951061997</t>
+  </si>
+  <si>
+    <t>Radhika H A</t>
+  </si>
+  <si>
+    <t>radhikanarayana2004@gmail.com</t>
+  </si>
+  <si>
+    <t>9148875079</t>
+  </si>
+  <si>
+    <t>Annapoorna Y Gowdar</t>
+  </si>
+  <si>
+    <t>annapoorna3002@gmail.com</t>
+  </si>
+  <si>
+    <t>7019816194</t>
+  </si>
+  <si>
+    <t>Deekshitha R</t>
+  </si>
+  <si>
+    <t>deekshitharangaswamy16@gmail.com</t>
+  </si>
+  <si>
+    <t>8453681710</t>
+  </si>
+  <si>
+    <t>Sinchana V Nayak</t>
+  </si>
+  <si>
+    <t>1rn22cd093.sinchanavnayak@rnsit.ac.in</t>
+  </si>
+  <si>
+    <t>8217228761</t>
   </si>
 </sst>
 </file>
@@ -2815,7 +3019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B5F41B-5913-4132-A5B1-3E9EB0ECD141}">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9560,6 +9764,742 @@
         <v>13</v>
       </c>
     </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>811</v>
+      </c>
+      <c r="B294" t="s">
+        <v>812</v>
+      </c>
+      <c r="C294" t="s">
+        <v>813</v>
+      </c>
+      <c r="D294" t="s">
+        <v>208</v>
+      </c>
+      <c r="E294" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>811</v>
+      </c>
+      <c r="B295" t="s">
+        <v>812</v>
+      </c>
+      <c r="C295" t="s">
+        <v>813</v>
+      </c>
+      <c r="D295" t="s">
+        <v>208</v>
+      </c>
+      <c r="E295" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" t="s">
+        <v>19</v>
+      </c>
+      <c r="G295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>814</v>
+      </c>
+      <c r="B296" t="s">
+        <v>815</v>
+      </c>
+      <c r="C296" t="s">
+        <v>816</v>
+      </c>
+      <c r="D296" t="s">
+        <v>35</v>
+      </c>
+      <c r="E296" t="s">
+        <v>18</v>
+      </c>
+      <c r="F296" t="s">
+        <v>19</v>
+      </c>
+      <c r="G296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>817</v>
+      </c>
+      <c r="B297" t="s">
+        <v>818</v>
+      </c>
+      <c r="C297" t="s">
+        <v>819</v>
+      </c>
+      <c r="D297" t="s">
+        <v>820</v>
+      </c>
+      <c r="E297" t="s">
+        <v>821</v>
+      </c>
+      <c r="F297" t="s">
+        <v>78</v>
+      </c>
+      <c r="G297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>822</v>
+      </c>
+      <c r="B298" t="s">
+        <v>823</v>
+      </c>
+      <c r="C298" t="s">
+        <v>824</v>
+      </c>
+      <c r="D298" t="s">
+        <v>103</v>
+      </c>
+      <c r="E298" t="s">
+        <v>24</v>
+      </c>
+      <c r="F298" t="s">
+        <v>25</v>
+      </c>
+      <c r="G298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>822</v>
+      </c>
+      <c r="B299" t="s">
+        <v>823</v>
+      </c>
+      <c r="C299" t="s">
+        <v>824</v>
+      </c>
+      <c r="D299" t="s">
+        <v>103</v>
+      </c>
+      <c r="E299" t="s">
+        <v>24</v>
+      </c>
+      <c r="F299" t="s">
+        <v>31</v>
+      </c>
+      <c r="G299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>825</v>
+      </c>
+      <c r="B300" t="s">
+        <v>826</v>
+      </c>
+      <c r="C300" t="s">
+        <v>827</v>
+      </c>
+      <c r="D300" t="s">
+        <v>828</v>
+      </c>
+      <c r="E300" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>19</v>
+      </c>
+      <c r="G300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>829</v>
+      </c>
+      <c r="B301" t="s">
+        <v>830</v>
+      </c>
+      <c r="C301" t="s">
+        <v>831</v>
+      </c>
+      <c r="D301" t="s">
+        <v>832</v>
+      </c>
+      <c r="E301" t="s">
+        <v>30</v>
+      </c>
+      <c r="F301" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>833</v>
+      </c>
+      <c r="B302" t="s">
+        <v>834</v>
+      </c>
+      <c r="C302" t="s">
+        <v>835</v>
+      </c>
+      <c r="D302" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" t="s">
+        <v>30</v>
+      </c>
+      <c r="F302" t="s">
+        <v>31</v>
+      </c>
+      <c r="G302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>833</v>
+      </c>
+      <c r="B303" t="s">
+        <v>834</v>
+      </c>
+      <c r="C303" t="s">
+        <v>835</v>
+      </c>
+      <c r="D303" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" t="s">
+        <v>30</v>
+      </c>
+      <c r="F303" t="s">
+        <v>25</v>
+      </c>
+      <c r="G303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>833</v>
+      </c>
+      <c r="B304" t="s">
+        <v>834</v>
+      </c>
+      <c r="C304" t="s">
+        <v>835</v>
+      </c>
+      <c r="D304" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" t="s">
+        <v>30</v>
+      </c>
+      <c r="F304" t="s">
+        <v>41</v>
+      </c>
+      <c r="G304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>833</v>
+      </c>
+      <c r="B305" t="s">
+        <v>834</v>
+      </c>
+      <c r="C305" t="s">
+        <v>835</v>
+      </c>
+      <c r="D305" t="s">
+        <v>23</v>
+      </c>
+      <c r="E305" t="s">
+        <v>30</v>
+      </c>
+      <c r="F305" t="s">
+        <v>63</v>
+      </c>
+      <c r="G305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>836</v>
+      </c>
+      <c r="B306" t="s">
+        <v>837</v>
+      </c>
+      <c r="C306" t="s">
+        <v>838</v>
+      </c>
+      <c r="D306" t="s">
+        <v>35</v>
+      </c>
+      <c r="E306" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" t="s">
+        <v>19</v>
+      </c>
+      <c r="G306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>839</v>
+      </c>
+      <c r="B307" t="s">
+        <v>840</v>
+      </c>
+      <c r="C307" t="s">
+        <v>841</v>
+      </c>
+      <c r="D307" t="s">
+        <v>504</v>
+      </c>
+      <c r="E307" t="s">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>19</v>
+      </c>
+      <c r="G307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>842</v>
+      </c>
+      <c r="B308" t="s">
+        <v>843</v>
+      </c>
+      <c r="C308" t="s">
+        <v>844</v>
+      </c>
+      <c r="D308" t="s">
+        <v>585</v>
+      </c>
+      <c r="E308" t="s">
+        <v>11</v>
+      </c>
+      <c r="F308" t="s">
+        <v>19</v>
+      </c>
+      <c r="G308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>845</v>
+      </c>
+      <c r="B309" t="s">
+        <v>846</v>
+      </c>
+      <c r="C309" t="s">
+        <v>847</v>
+      </c>
+      <c r="D309" t="s">
+        <v>50</v>
+      </c>
+      <c r="E309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309" t="s">
+        <v>19</v>
+      </c>
+      <c r="G309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>848</v>
+      </c>
+      <c r="B310" t="s">
+        <v>849</v>
+      </c>
+      <c r="C310" t="s">
+        <v>850</v>
+      </c>
+      <c r="D310" t="s">
+        <v>851</v>
+      </c>
+      <c r="E310" t="s">
+        <v>375</v>
+      </c>
+      <c r="F310" t="s">
+        <v>51</v>
+      </c>
+      <c r="G310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>852</v>
+      </c>
+      <c r="B311" t="s">
+        <v>853</v>
+      </c>
+      <c r="C311" t="s">
+        <v>854</v>
+      </c>
+      <c r="D311" t="s">
+        <v>58</v>
+      </c>
+      <c r="E311" t="s">
+        <v>18</v>
+      </c>
+      <c r="F311" t="s">
+        <v>19</v>
+      </c>
+      <c r="G311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>855</v>
+      </c>
+      <c r="B312" t="s">
+        <v>856</v>
+      </c>
+      <c r="C312" t="s">
+        <v>857</v>
+      </c>
+      <c r="D312" t="s">
+        <v>122</v>
+      </c>
+      <c r="E312" t="s">
+        <v>30</v>
+      </c>
+      <c r="F312" t="s">
+        <v>72</v>
+      </c>
+      <c r="G312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>858</v>
+      </c>
+      <c r="B313" t="s">
+        <v>859</v>
+      </c>
+      <c r="C313" t="s">
+        <v>860</v>
+      </c>
+      <c r="D313" t="s">
+        <v>339</v>
+      </c>
+      <c r="E313" t="s">
+        <v>30</v>
+      </c>
+      <c r="F313" t="s">
+        <v>51</v>
+      </c>
+      <c r="G313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>861</v>
+      </c>
+      <c r="B314" t="s">
+        <v>862</v>
+      </c>
+      <c r="C314" t="s">
+        <v>863</v>
+      </c>
+      <c r="D314" t="s">
+        <v>448</v>
+      </c>
+      <c r="E314" t="s">
+        <v>11</v>
+      </c>
+      <c r="F314" t="s">
+        <v>19</v>
+      </c>
+      <c r="G314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>864</v>
+      </c>
+      <c r="B315" t="s">
+        <v>865</v>
+      </c>
+      <c r="C315" t="s">
+        <v>866</v>
+      </c>
+      <c r="D315" t="s">
+        <v>35</v>
+      </c>
+      <c r="E315" t="s">
+        <v>11</v>
+      </c>
+      <c r="F315" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>867</v>
+      </c>
+      <c r="B316" t="s">
+        <v>868</v>
+      </c>
+      <c r="C316" t="s">
+        <v>869</v>
+      </c>
+      <c r="D316" t="s">
+        <v>521</v>
+      </c>
+      <c r="E316" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>867</v>
+      </c>
+      <c r="B317" t="s">
+        <v>868</v>
+      </c>
+      <c r="C317" t="s">
+        <v>869</v>
+      </c>
+      <c r="D317" t="s">
+        <v>521</v>
+      </c>
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" t="s">
+        <v>19</v>
+      </c>
+      <c r="G317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>870</v>
+      </c>
+      <c r="B318" t="s">
+        <v>871</v>
+      </c>
+      <c r="C318" t="s">
+        <v>872</v>
+      </c>
+      <c r="D318" t="s">
+        <v>71</v>
+      </c>
+      <c r="E318" t="s">
+        <v>30</v>
+      </c>
+      <c r="F318" t="s">
+        <v>41</v>
+      </c>
+      <c r="G318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>873</v>
+      </c>
+      <c r="B319" t="s">
+        <v>874</v>
+      </c>
+      <c r="C319" t="s">
+        <v>875</v>
+      </c>
+      <c r="D319" t="s">
+        <v>71</v>
+      </c>
+      <c r="E319" t="s">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>25</v>
+      </c>
+      <c r="G319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>553</v>
+      </c>
+      <c r="B320" t="s">
+        <v>554</v>
+      </c>
+      <c r="C320" t="s">
+        <v>555</v>
+      </c>
+      <c r="D320" t="s">
+        <v>204</v>
+      </c>
+      <c r="E320" t="s">
+        <v>24</v>
+      </c>
+      <c r="F320" t="s">
+        <v>63</v>
+      </c>
+      <c r="G320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>553</v>
+      </c>
+      <c r="B321" t="s">
+        <v>554</v>
+      </c>
+      <c r="C321" t="s">
+        <v>555</v>
+      </c>
+      <c r="D321" t="s">
+        <v>204</v>
+      </c>
+      <c r="E321" t="s">
+        <v>24</v>
+      </c>
+      <c r="F321" t="s">
+        <v>36</v>
+      </c>
+      <c r="G321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>553</v>
+      </c>
+      <c r="B322" t="s">
+        <v>554</v>
+      </c>
+      <c r="C322" t="s">
+        <v>555</v>
+      </c>
+      <c r="D322" t="s">
+        <v>204</v>
+      </c>
+      <c r="E322" t="s">
+        <v>24</v>
+      </c>
+      <c r="F322" t="s">
+        <v>51</v>
+      </c>
+      <c r="G322" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>553</v>
+      </c>
+      <c r="B323" t="s">
+        <v>554</v>
+      </c>
+      <c r="C323" t="s">
+        <v>555</v>
+      </c>
+      <c r="D323" t="s">
+        <v>204</v>
+      </c>
+      <c r="E323" t="s">
+        <v>24</v>
+      </c>
+      <c r="F323" t="s">
+        <v>72</v>
+      </c>
+      <c r="G323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>768</v>
+      </c>
+      <c r="B324" t="s">
+        <v>769</v>
+      </c>
+      <c r="C324" t="s">
+        <v>770</v>
+      </c>
+      <c r="D324" t="s">
+        <v>199</v>
+      </c>
+      <c r="E324" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324" t="s">
+        <v>19</v>
+      </c>
+      <c r="G324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>876</v>
+      </c>
+      <c r="B325" t="s">
+        <v>877</v>
+      </c>
+      <c r="C325" t="s">
+        <v>878</v>
+      </c>
+      <c r="D325" t="s">
+        <v>29</v>
+      </c>
+      <c r="E325" t="s">
+        <v>375</v>
+      </c>
+      <c r="F325" t="s">
+        <v>95</v>
+      </c>
+      <c r="G325" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_35.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586C53A-1B9D-4F7F-A932-992F3EA4AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B4149-D299-42C1-884C-824BEE017F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
